--- a/import-stockproducts-excel/sample-Stock Catalog.xlsx
+++ b/import-stockproducts-excel/sample-Stock Catalog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7448412C-A9A6-43F0-8CB0-CF260933851D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25918D-78DA-4A9D-B36A-8DBF51ABD756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3855" yWindow="1335" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -473,7 +473,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/import-stockproducts-excel/sample-Stock Catalog.xlsx
+++ b/import-stockproducts-excel/sample-Stock Catalog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C25918D-78DA-4A9D-B36A-8DBF51ABD756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901E2231-C646-4153-AC44-FC315A900463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="1335" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>name</t>
   </si>
@@ -48,16 +48,13 @@
     <t>Butter</t>
   </si>
   <si>
-    <t>Chilli Powder</t>
-  </si>
-  <si>
-    <t>Pepper Powder</t>
-  </si>
-  <si>
     <t>ltr</t>
   </si>
   <si>
-    <t>g</t>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Puppaya</t>
   </si>
 </sst>
 </file>
@@ -396,7 +393,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>50</v>
@@ -450,10 +447,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>30</v>
@@ -464,10 +461,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>50</v>
